--- a/posesiones/1381316.xlsx
+++ b/posesiones/1381316.xlsx
@@ -1994,10 +1994,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2188,7 +2188,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>14</v>
@@ -2238,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>19</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2388,7 +2388,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R11">
         <v>13</v>
@@ -2438,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2488,7 +2488,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R13">
         <v>18</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2588,7 +2588,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R15">
         <v>17</v>
@@ -2638,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2688,7 +2688,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R17">
         <v>13</v>
@@ -2741,7 +2741,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R18">
         <v>16</v>
@@ -2794,7 +2794,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R19">
         <v>19</v>
@@ -2844,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2894,7 +2894,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R21">
         <v>4</v>
@@ -2944,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2994,7 +2994,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R23">
         <v>22</v>
@@ -3047,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -3097,7 +3097,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R25">
         <v>5</v>
@@ -3147,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3191,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3285,7 +3285,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R29">
         <v>29</v>
@@ -3338,7 +3338,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R30">
         <v>14</v>
@@ -3391,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3535,7 +3535,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R34">
         <v>15</v>
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3635,7 +3635,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R36">
         <v>15</v>
@@ -3685,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3735,7 +3735,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R38">
         <v>14</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3885,7 +3885,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R41">
         <v>26</v>
@@ -3938,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -4032,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4220,7 +4220,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R49">
         <v>5</v>
@@ -4323,7 +4323,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R50">
         <v>18</v>
@@ -4376,7 +4376,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R51">
         <v>25</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4473,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4523,7 +4523,7 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R54">
         <v>21</v>
@@ -4573,7 +4573,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4620,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4667,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4714,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4761,7 +4761,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4808,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4855,7 +4855,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4905,7 +4905,7 @@
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R62">
         <v>7</v>
@@ -4958,7 +4958,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R63">
         <v>11</v>
@@ -5011,7 +5011,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -5061,7 +5061,7 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R65">
         <v>9</v>
@@ -5114,7 +5114,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5164,7 +5164,7 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R67">
         <v>19</v>
@@ -5217,7 +5217,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5267,7 +5267,7 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R69">
         <v>11</v>
@@ -5317,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5364,7 +5364,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5417,7 +5417,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R72">
         <v>16</v>
@@ -5467,7 +5467,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5514,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5561,7 +5561,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5608,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5655,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5702,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5749,7 +5749,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5796,7 +5796,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5893,7 +5893,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5940,7 +5940,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5990,7 +5990,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R84">
         <v>23</v>
@@ -6043,7 +6043,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -6093,7 +6093,7 @@
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R86">
         <v>7</v>
@@ -6143,7 +6143,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6193,7 +6193,7 @@
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R88">
         <v>20</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6296,7 +6296,7 @@
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R90">
         <v>12</v>
@@ -6349,7 +6349,7 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R91">
         <v>15</v>
@@ -6402,7 +6402,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6452,7 +6452,7 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R93">
         <v>5</v>
@@ -6502,7 +6502,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R95">
         <v>18</v>
@@ -6605,7 +6605,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6655,7 +6655,7 @@
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R97">
         <v>6</v>
@@ -6705,7 +6705,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6752,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6799,7 +6799,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6846,7 +6846,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6896,7 +6896,7 @@
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R102">
         <v>22</v>
@@ -6949,7 +6949,7 @@
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R103">
         <v>14</v>
@@ -7002,7 +7002,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R104">
         <v>19</v>
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -7105,7 +7105,7 @@
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R106">
         <v>18</v>
@@ -7149,10 +7149,10 @@
         <v>1</v>
       </c>
       <c r="P107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q107">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7199,7 +7199,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7246,7 +7246,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7287,10 +7287,10 @@
         <v>1</v>
       </c>
       <c r="P110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q110">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7337,7 +7337,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7384,7 +7384,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7478,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7525,7 +7525,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7578,7 +7578,7 @@
         <v>1</v>
       </c>
       <c r="Q116">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R116">
         <v>9</v>
@@ -7628,7 +7628,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7675,7 +7675,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7722,7 +7722,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7772,7 +7772,7 @@
         <v>1</v>
       </c>
       <c r="Q120">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R120">
         <v>19</v>
@@ -7822,7 +7822,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7872,7 +7872,7 @@
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R122">
         <v>4</v>
@@ -7925,7 +7925,7 @@
         <v>1</v>
       </c>
       <c r="Q123">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R123">
         <v>18</v>
@@ -7975,7 +7975,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -8025,7 +8025,7 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R125">
         <v>16</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8128,7 +8128,7 @@
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R127">
         <v>14</v>
@@ -8178,7 +8178,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8228,7 +8228,7 @@
         <v>1</v>
       </c>
       <c r="Q129">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R129">
         <v>22</v>
@@ -8281,7 +8281,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8331,7 +8331,7 @@
         <v>1</v>
       </c>
       <c r="Q131">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R131">
         <v>11</v>
@@ -8384,7 +8384,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8481,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8575,7 +8575,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8622,7 +8622,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8669,7 +8669,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8716,7 +8716,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8766,7 +8766,7 @@
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R140">
         <v>15</v>
@@ -8819,7 +8819,7 @@
         <v>1</v>
       </c>
       <c r="Q141">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R141">
         <v>13</v>
@@ -8872,7 +8872,7 @@
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R142">
         <v>25</v>
@@ -8922,7 +8922,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8972,7 +8972,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R144">
         <v>17</v>
@@ -9022,7 +9022,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -9069,7 +9069,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -9116,7 +9116,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9210,7 +9210,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9260,7 +9260,7 @@
         <v>1</v>
       </c>
       <c r="Q150">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R150">
         <v>21</v>
@@ -9310,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9357,7 +9357,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9407,7 +9407,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R153">
         <v>16</v>
@@ -9460,7 +9460,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9507,7 +9507,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9554,7 +9554,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9604,7 +9604,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9654,7 +9654,7 @@
         <v>1</v>
       </c>
       <c r="Q158">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R158">
         <v>16</v>
@@ -9704,7 +9704,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9754,7 +9754,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9804,7 +9804,7 @@
         <v>1</v>
       </c>
       <c r="Q161">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R161">
         <v>28</v>
@@ -9857,7 +9857,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9907,7 +9907,7 @@
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R163">
         <v>10</v>
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -10004,7 +10004,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -10051,7 +10051,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -10098,7 +10098,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10145,7 +10145,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10195,7 +10195,7 @@
         <v>1</v>
       </c>
       <c r="Q169">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R169">
         <v>18</v>
@@ -10245,7 +10245,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10295,7 +10295,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10345,7 +10345,7 @@
         <v>1</v>
       </c>
       <c r="Q172">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R172">
         <v>26</v>
@@ -10398,7 +10398,7 @@
         <v>1</v>
       </c>
       <c r="Q173">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R173">
         <v>17</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10498,7 +10498,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10548,7 +10548,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10645,7 +10645,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10695,7 +10695,7 @@
         <v>1</v>
       </c>
       <c r="Q179">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R179">
         <v>33</v>
@@ -10748,7 +10748,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10798,7 +10798,7 @@
         <v>1</v>
       </c>
       <c r="Q181">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R181">
         <v>14</v>
@@ -10848,7 +10848,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10898,7 +10898,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R183">
         <v>19</v>
@@ -10948,7 +10948,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10992,7 +10992,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -11039,7 +11039,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -11086,7 +11086,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11180,7 +11180,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11227,7 +11227,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11274,7 +11274,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11324,7 +11324,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11374,7 +11374,7 @@
         <v>1</v>
       </c>
       <c r="Q193">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R193">
         <v>20</v>
@@ -11427,7 +11427,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11477,7 +11477,7 @@
         <v>1</v>
       </c>
       <c r="Q195">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R195">
         <v>26</v>
@@ -11530,7 +11530,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11577,7 +11577,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11624,7 +11624,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11674,7 +11674,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11724,7 +11724,7 @@
         <v>1</v>
       </c>
       <c r="Q200">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R200">
         <v>27</v>
@@ -11774,7 +11774,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11821,7 +11821,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11868,7 +11868,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11915,7 +11915,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11965,7 +11965,7 @@
         <v>1</v>
       </c>
       <c r="Q205">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R205">
         <v>21</v>
@@ -12018,7 +12018,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -12068,7 +12068,7 @@
         <v>1</v>
       </c>
       <c r="Q207">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R207">
         <v>16</v>
@@ -12115,7 +12115,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12162,7 +12162,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12209,7 +12209,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12256,7 +12256,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12303,7 +12303,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12350,7 +12350,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12397,7 +12397,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12444,7 +12444,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12491,7 +12491,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12541,7 +12541,7 @@
         <v>1</v>
       </c>
       <c r="Q217">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R217">
         <v>15</v>
@@ -12594,7 +12594,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12644,7 +12644,7 @@
         <v>1</v>
       </c>
       <c r="Q219">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R219">
         <v>15</v>
@@ -12694,7 +12694,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12741,7 +12741,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12788,7 +12788,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12835,7 +12835,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12882,7 +12882,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12929,7 +12929,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12979,7 +12979,7 @@
         <v>1</v>
       </c>
       <c r="Q226">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R226">
         <v>17</v>
@@ -13032,7 +13032,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -13082,7 +13082,7 @@
         <v>1</v>
       </c>
       <c r="Q228">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R228">
         <v>12</v>
@@ -13132,7 +13132,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13182,7 +13182,7 @@
         <v>1</v>
       </c>
       <c r="Q230">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R230">
         <v>17</v>
@@ -13229,7 +13229,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13276,7 +13276,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13323,7 +13323,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13364,10 +13364,10 @@
         <v>1</v>
       </c>
       <c r="P234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q234">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13414,7 +13414,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13461,7 +13461,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13508,7 +13508,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13555,7 +13555,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13602,7 +13602,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13649,7 +13649,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13696,7 +13696,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13743,7 +13743,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13790,7 +13790,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13837,7 +13837,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13878,10 +13878,10 @@
         <v>1</v>
       </c>
       <c r="P245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q245">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13928,7 +13928,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13975,7 +13975,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -14025,7 +14025,7 @@
         <v>1</v>
       </c>
       <c r="Q248">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="R248">
         <v>12</v>
@@ -14075,7 +14075,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14122,7 +14122,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14172,7 +14172,7 @@
         <v>1</v>
       </c>
       <c r="Q251">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="R251">
         <v>28</v>
@@ -14225,7 +14225,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14275,7 +14275,7 @@
         <v>1</v>
       </c>
       <c r="Q253">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R253">
         <v>16</v>
@@ -14325,7 +14325,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14375,7 +14375,7 @@
         <v>1</v>
       </c>
       <c r="Q255">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R255">
         <v>4</v>
@@ -14425,7 +14425,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14475,7 +14475,7 @@
         <v>1</v>
       </c>
       <c r="Q257">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R257">
         <v>5</v>
@@ -14528,7 +14528,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14578,7 +14578,7 @@
         <v>1</v>
       </c>
       <c r="Q259">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R259">
         <v>6</v>
@@ -14628,7 +14628,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14678,7 +14678,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14728,7 +14728,7 @@
         <v>1</v>
       </c>
       <c r="Q262">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R262">
         <v>21</v>
@@ -14778,7 +14778,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14828,7 +14828,7 @@
         <v>1</v>
       </c>
       <c r="Q264">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R264">
         <v>18</v>
@@ -14881,7 +14881,7 @@
         <v>1</v>
       </c>
       <c r="Q265">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R265">
         <v>22</v>
@@ -14931,7 +14931,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14978,7 +14978,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -15025,7 +15025,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -15075,7 +15075,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R269">
         <v>1</v>
@@ -15128,7 +15128,7 @@
         <v>1</v>
       </c>
       <c r="Q270">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R270">
         <v>13</v>
@@ -15178,7 +15178,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15228,7 +15228,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R272">
         <v>19</v>
@@ -15278,7 +15278,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15328,7 +15328,7 @@
         <v>1</v>
       </c>
       <c r="Q274">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R274">
         <v>4</v>
@@ -15381,7 +15381,7 @@
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R275">
         <v>21</v>
@@ -15434,7 +15434,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15484,7 +15484,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R277">
         <v>7</v>
@@ -15531,7 +15531,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15578,7 +15578,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15625,7 +15625,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15675,7 +15675,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R281">
         <v>26</v>
@@ -15728,7 +15728,7 @@
         <v>1</v>
       </c>
       <c r="Q282">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R282">
         <v>22</v>
@@ -15778,7 +15778,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15828,7 +15828,7 @@
         <v>1</v>
       </c>
       <c r="Q284">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R284">
         <v>14</v>
@@ -15881,7 +15881,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15931,7 +15931,7 @@
         <v>1</v>
       </c>
       <c r="Q286">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R286">
         <v>7</v>
@@ -15981,7 +15981,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -16031,7 +16031,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -16081,7 +16081,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R289">
         <v>19</v>
@@ -16131,7 +16131,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16178,7 +16178,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16228,7 +16228,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16278,7 +16278,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R293">
         <v>11</v>
@@ -16328,7 +16328,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16375,7 +16375,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16422,7 +16422,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16469,7 +16469,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16516,7 +16516,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16566,7 +16566,7 @@
         <v>1</v>
       </c>
       <c r="Q299">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R299">
         <v>13</v>
@@ -16619,7 +16619,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16669,7 +16669,7 @@
         <v>1</v>
       </c>
       <c r="Q301">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R301">
         <v>15</v>
@@ -16722,7 +16722,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16772,7 +16772,7 @@
         <v>1</v>
       </c>
       <c r="Q303">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R303">
         <v>7</v>
@@ -16822,7 +16822,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16869,7 +16869,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16919,7 +16919,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16969,7 +16969,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R307">
         <v>16</v>
@@ -17019,7 +17019,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -17066,7 +17066,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -17113,7 +17113,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17160,7 +17160,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17207,7 +17207,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17254,7 +17254,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17301,7 +17301,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17351,7 +17351,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17401,7 +17401,7 @@
         <v>1</v>
       </c>
       <c r="Q316">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R316">
         <v>7</v>
@@ -17451,7 +17451,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17501,7 +17501,7 @@
         <v>1</v>
       </c>
       <c r="Q318">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R318">
         <v>22</v>
@@ -17554,7 +17554,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17601,7 +17601,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17651,7 +17651,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17698,7 +17698,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17745,7 +17745,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17792,7 +17792,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17839,7 +17839,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17886,7 +17886,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17936,7 +17936,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R327">
         <v>17</v>
@@ -17989,7 +17989,7 @@
         <v>1</v>
       </c>
       <c r="Q328">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R328">
         <v>16</v>
@@ -18039,7 +18039,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -18086,7 +18086,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18133,7 +18133,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18183,7 +18183,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18233,7 +18233,7 @@
         <v>1</v>
       </c>
       <c r="Q333">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R333">
         <v>27</v>
@@ -18286,7 +18286,7 @@
         <v>1</v>
       </c>
       <c r="Q334">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R334">
         <v>19</v>
@@ -18339,7 +18339,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18386,7 +18386,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18436,7 +18436,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18483,7 +18483,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18530,7 +18530,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18580,7 +18580,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18630,7 +18630,7 @@
         <v>1</v>
       </c>
       <c r="Q341">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R341">
         <v>26</v>
@@ -18683,7 +18683,7 @@
         <v>1</v>
       </c>
       <c r="Q342">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R342">
         <v>15</v>
@@ -18736,7 +18736,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18786,7 +18786,7 @@
         <v>1</v>
       </c>
       <c r="Q344">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R344">
         <v>14</v>
@@ -18839,7 +18839,7 @@
         <v>1</v>
       </c>
       <c r="Q345">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R345">
         <v>16</v>
@@ -18889,7 +18889,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18936,7 +18936,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18983,7 +18983,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -19030,7 +19030,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -19083,7 +19083,7 @@
         <v>1</v>
       </c>
       <c r="Q350">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R350">
         <v>12</v>
@@ -19133,7 +19133,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19180,7 +19180,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19227,7 +19227,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19274,7 +19274,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19321,7 +19321,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19368,7 +19368,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19415,7 +19415,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19462,7 +19462,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19512,7 +19512,7 @@
         <v>1</v>
       </c>
       <c r="Q359">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R359">
         <v>7</v>
@@ -19562,7 +19562,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19609,7 +19609,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19656,7 +19656,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19703,7 +19703,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19753,7 +19753,7 @@
         <v>1</v>
       </c>
       <c r="Q364">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R364">
         <v>21</v>
@@ -19803,7 +19803,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19850,7 +19850,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19900,7 +19900,7 @@
         <v>1</v>
       </c>
       <c r="Q367">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R367">
         <v>17</v>
@@ -19953,7 +19953,7 @@
         <v>1</v>
       </c>
       <c r="Q368">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R368">
         <v>11</v>
@@ -20009,7 +20009,7 @@
         <v>1</v>
       </c>
       <c r="Q369">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R369">
         <v>3</v>
@@ -20053,10 +20053,10 @@
         <v>1</v>
       </c>
       <c r="P370" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q370">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -20103,7 +20103,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20150,7 +20150,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20197,7 +20197,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20244,7 +20244,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20291,7 +20291,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20338,7 +20338,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20385,7 +20385,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20432,7 +20432,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20473,10 +20473,10 @@
         <v>1</v>
       </c>
       <c r="P379" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q379">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20526,7 +20526,7 @@
         <v>1</v>
       </c>
       <c r="Q380">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="R380">
         <v>9</v>
@@ -20576,7 +20576,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20626,7 +20626,7 @@
         <v>1</v>
       </c>
       <c r="Q382">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R382">
         <v>13</v>
@@ -20676,7 +20676,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20726,7 +20726,7 @@
         <v>1</v>
       </c>
       <c r="Q384">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R384">
         <v>16</v>
@@ -20779,7 +20779,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R385">
         <v>20</v>
@@ -20829,7 +20829,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20876,7 +20876,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20923,7 +20923,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20973,7 +20973,7 @@
         <v>1</v>
       </c>
       <c r="Q389">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R389">
         <v>22</v>
@@ -21026,7 +21026,7 @@
         <v>1</v>
       </c>
       <c r="Q390">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R390">
         <v>13</v>
@@ -21076,7 +21076,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21126,7 +21126,7 @@
         <v>1</v>
       </c>
       <c r="Q392">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R392">
         <v>9</v>
@@ -21176,7 +21176,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21223,7 +21223,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21270,7 +21270,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21317,7 +21317,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21367,7 +21367,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21417,7 +21417,7 @@
         <v>1</v>
       </c>
       <c r="Q398">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R398">
         <v>27</v>
@@ -21467,7 +21467,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21514,7 +21514,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21561,7 +21561,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21608,7 +21608,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21655,7 +21655,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21705,7 +21705,7 @@
         <v>1</v>
       </c>
       <c r="Q404">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R404">
         <v>26</v>
@@ -21758,7 +21758,7 @@
         <v>1</v>
       </c>
       <c r="Q405">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R405">
         <v>16</v>
@@ -21811,7 +21811,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21861,7 +21861,7 @@
         <v>1</v>
       </c>
       <c r="Q407">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R407">
         <v>7</v>
@@ -21914,7 +21914,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21961,7 +21961,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -22008,7 +22008,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -22055,7 +22055,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -22105,7 +22105,7 @@
         <v>1</v>
       </c>
       <c r="Q412">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R412">
         <v>18</v>
@@ -22155,7 +22155,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22202,7 +22202,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22249,7 +22249,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22299,7 +22299,7 @@
         <v>1</v>
       </c>
       <c r="Q416">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R416">
         <v>29</v>
@@ -22352,7 +22352,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22402,7 +22402,7 @@
         <v>1</v>
       </c>
       <c r="Q418">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R418">
         <v>6</v>
@@ -22452,7 +22452,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22499,7 +22499,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22546,7 +22546,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22590,7 +22590,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22637,7 +22637,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22684,7 +22684,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22734,7 +22734,7 @@
         <v>1</v>
       </c>
       <c r="Q425">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R425">
         <v>0</v>
@@ -22787,7 +22787,7 @@
         <v>1</v>
       </c>
       <c r="Q426">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R426">
         <v>26</v>
@@ -22840,7 +22840,7 @@
         <v>1</v>
       </c>
       <c r="Q427">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R427">
         <v>19</v>
@@ -22890,7 +22890,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22937,7 +22937,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22990,7 +22990,7 @@
         <v>1</v>
       </c>
       <c r="Q430">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R430">
         <v>0</v>
@@ -23040,7 +23040,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -23093,7 +23093,7 @@
         <v>1</v>
       </c>
       <c r="Q432">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R432">
         <v>0</v>
@@ -23146,7 +23146,7 @@
         <v>1</v>
       </c>
       <c r="Q433">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R433">
         <v>14</v>
@@ -23199,7 +23199,7 @@
         <v>1</v>
       </c>
       <c r="Q434">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R434">
         <v>21</v>
@@ -23249,7 +23249,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23293,7 +23293,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23343,7 +23343,7 @@
         <v>1</v>
       </c>
       <c r="Q437">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R437">
         <v>15</v>
@@ -23396,7 +23396,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23446,7 +23446,7 @@
         <v>1</v>
       </c>
       <c r="Q439">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R439">
         <v>23</v>
@@ -23496,7 +23496,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23596,7 +23596,7 @@
         <v>1</v>
       </c>
       <c r="Q442">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R442">
         <v>23</v>
@@ -23649,7 +23649,7 @@
         <v>1</v>
       </c>
       <c r="Q443">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R443">
         <v>17</v>
@@ -23702,7 +23702,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23752,7 +23752,7 @@
         <v>1</v>
       </c>
       <c r="Q445">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R445">
         <v>17</v>
@@ -23802,7 +23802,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23846,7 +23846,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -24087,7 +24087,7 @@
         <v>1</v>
       </c>
       <c r="Q452">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R452">
         <v>25</v>
@@ -24137,7 +24137,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24234,7 +24234,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24284,7 +24284,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24334,7 +24334,7 @@
         <v>1</v>
       </c>
       <c r="Q457">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R457">
         <v>21</v>
@@ -24387,7 +24387,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24434,7 +24434,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24481,7 +24481,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24528,7 +24528,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24575,7 +24575,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24622,7 +24622,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24672,7 +24672,7 @@
         <v>1</v>
       </c>
       <c r="Q464">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R464">
         <v>1</v>
@@ -24725,7 +24725,7 @@
         <v>1</v>
       </c>
       <c r="Q465">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R465">
         <v>16</v>
@@ -24775,7 +24775,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24825,7 +24825,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24869,7 +24869,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24919,7 +24919,7 @@
         <v>1</v>
       </c>
       <c r="Q469">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R469">
         <v>0</v>
@@ -24969,7 +24969,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -25016,7 +25016,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -25063,7 +25063,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -25110,7 +25110,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25157,7 +25157,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25207,7 +25207,7 @@
         <v>1</v>
       </c>
       <c r="Q475">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R475">
         <v>15</v>
@@ -25257,7 +25257,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25307,7 +25307,7 @@
         <v>1</v>
       </c>
       <c r="Q477">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R477">
         <v>22</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25407,7 +25407,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25454,7 +25454,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25501,7 +25501,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25548,7 +25548,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25595,7 +25595,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25692,7 +25692,7 @@
         <v>1</v>
       </c>
       <c r="Q485">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R485">
         <v>16</v>
@@ -25745,7 +25745,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25795,7 +25795,7 @@
         <v>1</v>
       </c>
       <c r="Q487">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R487">
         <v>13</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25892,7 +25892,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25939,7 +25939,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25989,7 +25989,7 @@
         <v>1</v>
       </c>
       <c r="Q491">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R491">
         <v>0</v>
@@ -26042,7 +26042,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -26092,7 +26092,7 @@
         <v>1</v>
       </c>
       <c r="Q493">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R493">
         <v>6</v>
@@ -26142,7 +26142,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26192,7 +26192,7 @@
         <v>1</v>
       </c>
       <c r="Q495">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R495">
         <v>17</v>
@@ -26245,7 +26245,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26295,7 +26295,7 @@
         <v>1</v>
       </c>
       <c r="Q497">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R497">
         <v>8</v>
@@ -26345,7 +26345,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26436,7 +26436,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26483,7 +26483,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26530,7 +26530,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26577,7 +26577,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26627,7 +26627,7 @@
         <v>1</v>
       </c>
       <c r="Q504">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R504">
         <v>19</v>
@@ -26680,7 +26680,7 @@
         <v>0</v>
       </c>
       <c r="Q505">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="506" spans="1:18">
@@ -26730,7 +26730,7 @@
         <v>1</v>
       </c>
       <c r="Q506">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R506">
         <v>8</v>
@@ -26786,7 +26786,7 @@
         <v>1</v>
       </c>
       <c r="Q507">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R507">
         <v>4</v>
@@ -26830,10 +26830,10 @@
         <v>1</v>
       </c>
       <c r="P508" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q508">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -26874,10 +26874,10 @@
         <v>1</v>
       </c>
       <c r="P509" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q509">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="510" spans="1:18">
@@ -26927,7 +26927,7 @@
         <v>1</v>
       </c>
       <c r="Q510">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="R510">
         <v>12</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="Q511">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="512" spans="1:18">
@@ -27024,7 +27024,7 @@
         <v>0</v>
       </c>
       <c r="Q512">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="513" spans="1:18">
@@ -27071,7 +27071,7 @@
         <v>0</v>
       </c>
       <c r="Q513">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="514" spans="1:18">
@@ -27118,7 +27118,7 @@
         <v>0</v>
       </c>
       <c r="Q514">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="515" spans="1:18">
@@ -27168,7 +27168,7 @@
         <v>1</v>
       </c>
       <c r="Q515">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="R515">
         <v>4</v>
@@ -27221,7 +27221,7 @@
         <v>1</v>
       </c>
       <c r="Q516">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="R516">
         <v>13</v>
@@ -27274,7 +27274,7 @@
         <v>1</v>
       </c>
       <c r="Q517">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="R517">
         <v>18</v>
@@ -27327,7 +27327,7 @@
         <v>0</v>
       </c>
       <c r="Q518">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="519" spans="1:18">
@@ -27374,7 +27374,7 @@
         <v>0</v>
       </c>
       <c r="Q519">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="520" spans="1:18">
@@ -27427,7 +27427,7 @@
         <v>1</v>
       </c>
       <c r="Q520">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="R520">
         <v>15</v>
@@ -27477,7 +27477,7 @@
         <v>0</v>
       </c>
       <c r="Q521">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="522" spans="1:18">
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Q522">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="523" spans="1:18">
@@ -27571,7 +27571,7 @@
         <v>0</v>
       </c>
       <c r="Q523">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="524" spans="1:18">
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="Q524">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="525" spans="1:18">
@@ -27665,7 +27665,7 @@
         <v>0</v>
       </c>
       <c r="Q525">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="526" spans="1:18">
@@ -27712,7 +27712,7 @@
         <v>0</v>
       </c>
       <c r="Q526">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="527" spans="1:18">
@@ -27759,7 +27759,7 @@
         <v>0</v>
       </c>
       <c r="Q527">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="528" spans="1:18">
@@ -27809,7 +27809,7 @@
         <v>1</v>
       </c>
       <c r="Q528">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="R528">
         <v>9</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="Q529">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="530" spans="1:18">
@@ -27909,7 +27909,7 @@
         <v>0</v>
       </c>
       <c r="Q530">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="531" spans="1:18">
@@ -27956,7 +27956,7 @@
         <v>0</v>
       </c>
       <c r="Q531">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="532" spans="1:18">
@@ -28003,7 +28003,7 @@
         <v>0</v>
       </c>
       <c r="Q532">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="533" spans="1:18">
@@ -28053,7 +28053,7 @@
         <v>1</v>
       </c>
       <c r="Q533">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="R533">
         <v>15</v>
@@ -28103,7 +28103,7 @@
         <v>0</v>
       </c>
       <c r="Q534">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="535" spans="1:18">
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="Q535">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="536" spans="1:18">
@@ -28197,7 +28197,7 @@
         <v>0</v>
       </c>
       <c r="Q536">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="537" spans="1:18">
@@ -28247,7 +28247,7 @@
         <v>1</v>
       </c>
       <c r="Q537">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="R537">
         <v>12</v>
@@ -28297,7 +28297,7 @@
         <v>0</v>
       </c>
       <c r="Q538">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="539" spans="1:18">
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="Q539">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="540" spans="1:18">
@@ -28391,7 +28391,7 @@
         <v>0</v>
       </c>
       <c r="Q540">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="541" spans="1:18">
@@ -28438,7 +28438,7 @@
         <v>0</v>
       </c>
       <c r="Q541">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="542" spans="1:18">
@@ -28485,7 +28485,7 @@
         <v>0</v>
       </c>
       <c r="Q542">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="543" spans="1:18">
@@ -28535,7 +28535,7 @@
         <v>1</v>
       </c>
       <c r="Q543">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="R543">
         <v>20</v>
@@ -28585,7 +28585,7 @@
         <v>0</v>
       </c>
       <c r="Q544">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="545" spans="1:18">
@@ -28632,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="Q545">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="546" spans="1:18">
@@ -28679,7 +28679,7 @@
         <v>0</v>
       </c>
       <c r="Q546">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="547" spans="1:18">
@@ -28726,7 +28726,7 @@
         <v>0</v>
       </c>
       <c r="Q547">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="548" spans="1:18">
@@ -28776,7 +28776,7 @@
         <v>1</v>
       </c>
       <c r="Q548">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="R548">
         <v>20</v>
@@ -28826,7 +28826,7 @@
         <v>0</v>
       </c>
       <c r="Q549">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="550" spans="1:18">
@@ -28873,7 +28873,7 @@
         <v>0</v>
       </c>
       <c r="Q550">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="551" spans="1:18">
@@ -28920,7 +28920,7 @@
         <v>0</v>
       </c>
       <c r="Q551">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="552" spans="1:18">
@@ -28970,7 +28970,7 @@
         <v>0</v>
       </c>
       <c r="Q552">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="553" spans="1:18">
@@ -29020,7 +29020,7 @@
         <v>1</v>
       </c>
       <c r="Q553">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="R553">
         <v>39</v>
@@ -29073,7 +29073,7 @@
         <v>1</v>
       </c>
       <c r="Q554">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="R554">
         <v>16</v>
@@ -29123,7 +29123,7 @@
         <v>0</v>
       </c>
       <c r="Q555">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="556" spans="1:18">
@@ -29173,7 +29173,7 @@
         <v>0</v>
       </c>
       <c r="Q556">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="557" spans="1:18">
@@ -29223,7 +29223,7 @@
         <v>1</v>
       </c>
       <c r="Q557">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="R557">
         <v>5</v>
@@ -29273,7 +29273,7 @@
         <v>0</v>
       </c>
       <c r="Q558">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="559" spans="1:18">
@@ -29317,7 +29317,7 @@
         <v>0</v>
       </c>
       <c r="Q559">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="560" spans="1:18">
@@ -29364,7 +29364,7 @@
         <v>0</v>
       </c>
       <c r="Q560">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="561" spans="1:18">
@@ -29411,7 +29411,7 @@
         <v>0</v>
       </c>
       <c r="Q561">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="562" spans="1:18">
@@ -29458,7 +29458,7 @@
         <v>0</v>
       </c>
       <c r="Q562">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="563" spans="1:18">
@@ -29508,7 +29508,7 @@
         <v>1</v>
       </c>
       <c r="Q563">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="R563">
         <v>9</v>
@@ -29561,7 +29561,7 @@
         <v>0</v>
       </c>
       <c r="Q564">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="565" spans="1:18">
@@ -29611,7 +29611,7 @@
         <v>1</v>
       </c>
       <c r="Q565">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="R565">
         <v>22</v>
@@ -29664,7 +29664,7 @@
         <v>0</v>
       </c>
       <c r="Q566">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="567" spans="1:18">
@@ -29714,7 +29714,7 @@
         <v>1</v>
       </c>
       <c r="Q567">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="R567">
         <v>6</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="Q568">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="569" spans="1:18">
@@ -29814,7 +29814,7 @@
         <v>1</v>
       </c>
       <c r="Q569">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="R569">
         <v>24</v>
@@ -29867,7 +29867,7 @@
         <v>1</v>
       </c>
       <c r="Q570">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="R570">
         <v>11</v>
@@ -29917,7 +29917,7 @@
         <v>0</v>
       </c>
       <c r="Q571">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="572" spans="1:18">
@@ -29964,7 +29964,7 @@
         <v>0</v>
       </c>
       <c r="Q572">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="573" spans="1:18">
@@ -30011,7 +30011,7 @@
         <v>0</v>
       </c>
       <c r="Q573">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="574" spans="1:18">
@@ -30061,7 +30061,7 @@
         <v>1</v>
       </c>
       <c r="Q574">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="R574">
         <v>4</v>
@@ -30114,7 +30114,7 @@
         <v>1</v>
       </c>
       <c r="Q575">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="R575">
         <v>12</v>
@@ -30164,7 +30164,7 @@
         <v>0</v>
       </c>
       <c r="Q576">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="577" spans="1:18">
@@ -30208,7 +30208,7 @@
         <v>0</v>
       </c>
       <c r="Q577">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="578" spans="1:18">
@@ -30255,7 +30255,7 @@
         <v>0</v>
       </c>
       <c r="Q578">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="579" spans="1:18">
@@ -30302,7 +30302,7 @@
         <v>0</v>
       </c>
       <c r="Q579">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="580" spans="1:18">
@@ -30349,7 +30349,7 @@
         <v>0</v>
       </c>
       <c r="Q580">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="581" spans="1:18">
@@ -30399,7 +30399,7 @@
         <v>1</v>
       </c>
       <c r="Q581">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="R581">
         <v>4</v>
@@ -30449,7 +30449,7 @@
         <v>0</v>
       </c>
       <c r="Q582">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="583" spans="1:18">
@@ -30496,7 +30496,7 @@
         <v>0</v>
       </c>
       <c r="Q583">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="584" spans="1:18">
@@ -30543,7 +30543,7 @@
         <v>0</v>
       </c>
       <c r="Q584">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="585" spans="1:18">
@@ -30590,7 +30590,7 @@
         <v>0</v>
       </c>
       <c r="Q585">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="586" spans="1:18">
@@ -30640,7 +30640,7 @@
         <v>1</v>
       </c>
       <c r="Q586">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="R586">
         <v>8</v>
@@ -30690,7 +30690,7 @@
         <v>0</v>
       </c>
       <c r="Q587">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="588" spans="1:18">
@@ -30737,7 +30737,7 @@
         <v>0</v>
       </c>
       <c r="Q588">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="589" spans="1:18">
@@ -30784,7 +30784,7 @@
         <v>0</v>
       </c>
       <c r="Q589">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="590" spans="1:18">
@@ -30834,7 +30834,7 @@
         <v>1</v>
       </c>
       <c r="Q590">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="R590">
         <v>0</v>
@@ -30887,7 +30887,7 @@
         <v>1</v>
       </c>
       <c r="Q591">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="R591">
         <v>1</v>
@@ -30931,10 +30931,10 @@
         <v>1</v>
       </c>
       <c r="P592" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q592">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="593" spans="1:17">
@@ -30975,7 +30975,7 @@
         <v>0</v>
       </c>
       <c r="Q593">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
